--- a/ComputedResults/Area/ThreeCornerVowels/Norwagian/MFCC/Mother/3_bordervowels_mfcc_no_IDS_M.xlsx
+++ b/ComputedResults/Area/ThreeCornerVowels/Norwagian/MFCC/Mother/3_bordervowels_mfcc_no_IDS_M.xlsx
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5505.79020656361</v>
+        <v>5506</v>
       </c>
     </row>
     <row r="3">
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>7294.943393750133</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="4">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>7460.40757603585</v>
+        <v>7460</v>
       </c>
     </row>
     <row r="5">
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5732.769248285663</v>
+        <v>5733</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4192.631818761407</v>
+        <v>4193</v>
       </c>
     </row>
     <row r="7">
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5159.560046334311</v>
+        <v>5160</v>
       </c>
     </row>
     <row r="8">
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>7611.3705278669</v>
+        <v>7611</v>
       </c>
     </row>
     <row r="9">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4356.42232063037</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="10">
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5962.06427747735</v>
+        <v>5962</v>
       </c>
     </row>
     <row r="11">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4516.812820969646</v>
+        <v>4517</v>
       </c>
     </row>
     <row r="12">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>6905.80300294141</v>
+        <v>6906</v>
       </c>
     </row>
     <row r="13">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>6855.624485505083</v>
+        <v>6856</v>
       </c>
     </row>
     <row r="14">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>6098.711896001003</v>
+        <v>6099</v>
       </c>
     </row>
     <row r="15">
@@ -704,7 +704,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>6997.91129472096</v>
+        <v>6998</v>
       </c>
     </row>
     <row r="16">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>7743.428831791913</v>
+        <v>7743</v>
       </c>
     </row>
     <row r="17">
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>7865.159099173319</v>
+        <v>7865</v>
       </c>
     </row>
     <row r="18">
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>8546.409792764596</v>
+        <v>8546</v>
       </c>
     </row>
     <row r="19">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6743.437334775341</v>
+        <v>6743</v>
       </c>
     </row>
     <row r="20">
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>5781.219322426577</v>
+        <v>5781</v>
       </c>
     </row>
     <row r="21">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>9846.080876853184</v>
+        <v>9846</v>
       </c>
     </row>
     <row r="22">
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>9206.437973891996</v>
+        <v>9206</v>
       </c>
     </row>
     <row r="23">
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>10649.78420170471</v>
+        <v>10650</v>
       </c>
     </row>
     <row r="24">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>7819.917254968866</v>
+        <v>7820</v>
       </c>
     </row>
     <row r="25">
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>6530.033668718832</v>
+        <v>6530</v>
       </c>
     </row>
     <row r="26">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>6750.525035477566</v>
+        <v>6751</v>
       </c>
     </row>
     <row r="27">
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>5725.46097957288</v>
+        <v>5725</v>
       </c>
     </row>
     <row r="28">
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>6577.501682592533</v>
+        <v>6578</v>
       </c>
     </row>
     <row r="29">
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>7783.865975702247</v>
+        <v>7784</v>
       </c>
     </row>
     <row r="30">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>5890.603534772746</v>
+        <v>5891</v>
       </c>
     </row>
     <row r="31">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>11628.77038234291</v>
+        <v>11629</v>
       </c>
     </row>
     <row r="32">
@@ -1010,7 +1010,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>9317.074968936262</v>
+        <v>9317</v>
       </c>
     </row>
     <row r="33">
@@ -1028,7 +1028,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>7590.429388438706</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="34">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>5098.636476584551</v>
+        <v>5099</v>
       </c>
     </row>
     <row r="35">
@@ -1064,7 +1064,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>6803.026076697059</v>
+        <v>6803</v>
       </c>
     </row>
     <row r="36">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>5160.200867934232</v>
+        <v>5160</v>
       </c>
     </row>
     <row r="37">
@@ -1100,7 +1100,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>6712.92076646727</v>
+        <v>6713</v>
       </c>
     </row>
     <row r="38">
@@ -1118,7 +1118,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>6869.590469865052</v>
+        <v>6870</v>
       </c>
     </row>
     <row r="39">
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>8784.971826245765</v>
+        <v>8785</v>
       </c>
     </row>
     <row r="40">
@@ -1154,7 +1154,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3796.342100959182</v>
+        <v>3796</v>
       </c>
     </row>
     <row r="41">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>4260.396170184485</v>
+        <v>4260</v>
       </c>
     </row>
     <row r="42">
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>5820.440569839939</v>
+        <v>5820</v>
       </c>
     </row>
     <row r="43">
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3577.016826263738</v>
+        <v>3577</v>
       </c>
     </row>
     <row r="44">
@@ -1226,7 +1226,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>4677.712840224747</v>
+        <v>4678</v>
       </c>
     </row>
     <row r="45">
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>9108.177970257537</v>
+        <v>9108</v>
       </c>
     </row>
     <row r="46">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>10561.731108833</v>
+        <v>10562</v>
       </c>
     </row>
     <row r="47">
@@ -1280,7 +1280,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>11555.94991792842</v>
+        <v>11556</v>
       </c>
     </row>
     <row r="48">
@@ -1298,7 +1298,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>3938.831673162511</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="49">
@@ -1316,7 +1316,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>6254.563586983526</v>
+        <v>6255</v>
       </c>
     </row>
     <row r="50">
@@ -1334,7 +1334,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>8779.972593495102</v>
+        <v>8780</v>
       </c>
     </row>
     <row r="51">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>8578.457120163015</v>
+        <v>8578</v>
       </c>
     </row>
     <row r="52">
@@ -1370,7 +1370,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>5283.397274386493</v>
+        <v>5283</v>
       </c>
     </row>
     <row r="53">
@@ -1388,7 +1388,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>4468.878307166053</v>
+        <v>4469</v>
       </c>
     </row>
     <row r="54">
@@ -1406,7 +1406,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>7563.365959420291</v>
+        <v>7563</v>
       </c>
     </row>
     <row r="55">
@@ -1424,7 +1424,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>8957.691907894896</v>
+        <v>8958</v>
       </c>
     </row>
     <row r="56">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>5912.214241950185</v>
+        <v>5912</v>
       </c>
     </row>
     <row r="57">
@@ -1460,7 +1460,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>4720.51110784262</v>
+        <v>4721</v>
       </c>
     </row>
     <row r="58">
@@ -1478,7 +1478,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>7296.685535657271</v>
+        <v>7297</v>
       </c>
     </row>
     <row r="59">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>8492.011055797981</v>
+        <v>8492</v>
       </c>
     </row>
     <row r="60">
@@ -1514,7 +1514,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>8694.099243345361</v>
+        <v>8694</v>
       </c>
     </row>
     <row r="61">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9387.232421020657</v>
+        <v>9387</v>
       </c>
     </row>
     <row r="62">
@@ -1550,7 +1550,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>7289.592390366971</v>
+        <v>7290</v>
       </c>
     </row>
     <row r="63">
@@ -1568,7 +1568,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>9822.426125595075</v>
+        <v>9822</v>
       </c>
     </row>
     <row r="64">
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>5446.995658822045</v>
+        <v>5447</v>
       </c>
     </row>
     <row r="65">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3364.381793010902</v>
+        <v>3364</v>
       </c>
     </row>
     <row r="66">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>5167.664823578415</v>
+        <v>5168</v>
       </c>
     </row>
     <row r="67">
@@ -1640,7 +1640,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5473.770261634925</v>
+        <v>5474</v>
       </c>
     </row>
     <row r="68">
@@ -1658,7 +1658,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>4596.175272866857</v>
+        <v>4596</v>
       </c>
     </row>
     <row r="69">
@@ -1676,7 +1676,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>6016.781525432838</v>
+        <v>6017</v>
       </c>
     </row>
     <row r="70">
@@ -1694,7 +1694,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>8459.20703916968</v>
+        <v>8459</v>
       </c>
     </row>
     <row r="71">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>7648.667477114095</v>
+        <v>7649</v>
       </c>
     </row>
     <row r="72">
@@ -1730,7 +1730,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>9471.764534031441</v>
+        <v>9472</v>
       </c>
     </row>
     <row r="73">
@@ -1748,7 +1748,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>7490.195810500994</v>
+        <v>7490</v>
       </c>
     </row>
     <row r="74">
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>8393.508248933995</v>
+        <v>8394</v>
       </c>
     </row>
     <row r="75">
@@ -1784,7 +1784,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>6356.913207404013</v>
+        <v>6357</v>
       </c>
     </row>
     <row r="76">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>9710.688489323988</v>
+        <v>9711</v>
       </c>
     </row>
     <row r="77">
@@ -1820,7 +1820,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5190.206140111519</v>
+        <v>5190</v>
       </c>
     </row>
     <row r="78">
@@ -1838,7 +1838,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>5369.097951774599</v>
+        <v>5369</v>
       </c>
     </row>
     <row r="79">
@@ -1856,7 +1856,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>5728.692022372223</v>
+        <v>5729</v>
       </c>
     </row>
     <row r="80">
@@ -1874,7 +1874,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>6180.669865560961</v>
+        <v>6181</v>
       </c>
     </row>
     <row r="81">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>4869.101657042281</v>
+        <v>4869</v>
       </c>
     </row>
     <row r="82">
@@ -1910,7 +1910,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>2904.653078937955</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="83">
@@ -1928,7 +1928,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>6064.170931920997</v>
+        <v>6064</v>
       </c>
     </row>
     <row r="84">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>8369.645002731711</v>
+        <v>8370</v>
       </c>
     </row>
     <row r="85">
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>8212.847575370657</v>
+        <v>8213</v>
       </c>
     </row>
     <row r="86">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>10773.38146383831</v>
+        <v>10773</v>
       </c>
     </row>
     <row r="87">
@@ -2000,7 +2000,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>8409.298889284439</v>
+        <v>8409</v>
       </c>
     </row>
     <row r="88">
@@ -2018,7 +2018,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>10542.39632385153</v>
+        <v>10542</v>
       </c>
     </row>
     <row r="89">
@@ -2036,7 +2036,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>3754.657380645695</v>
+        <v>3755</v>
       </c>
     </row>
     <row r="90">
@@ -2054,7 +2054,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>6174.867178463861</v>
+        <v>6175</v>
       </c>
     </row>
     <row r="91">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>6180.791245450586</v>
+        <v>6181</v>
       </c>
     </row>
     <row r="92">
@@ -2090,7 +2090,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>6961.744575869403</v>
+        <v>6962</v>
       </c>
     </row>
     <row r="93">
@@ -2108,7 +2108,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>10802.36655299382</v>
+        <v>10802</v>
       </c>
     </row>
     <row r="94">
@@ -2126,7 +2126,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>7019.195128939622</v>
+        <v>7019</v>
       </c>
     </row>
     <row r="95">
@@ -2144,7 +2144,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>5476.854961842804</v>
+        <v>5477</v>
       </c>
     </row>
     <row r="96">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>5814.070806862187</v>
+        <v>5814</v>
       </c>
     </row>
     <row r="97">
@@ -2180,7 +2180,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>5423.404560579304</v>
+        <v>5423</v>
       </c>
     </row>
     <row r="98">
@@ -2198,7 +2198,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>6802.368177221337</v>
+        <v>6802</v>
       </c>
     </row>
     <row r="99">
@@ -2216,7 +2216,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>4684.125372089593</v>
+        <v>4684</v>
       </c>
     </row>
     <row r="100">
@@ -2234,7 +2234,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>4632.445261668505</v>
+        <v>4632</v>
       </c>
     </row>
     <row r="101">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>8063.849322853861</v>
+        <v>8064</v>
       </c>
     </row>
     <row r="102">
@@ -2270,7 +2270,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>12319.63405482469</v>
+        <v>12320</v>
       </c>
     </row>
     <row r="103">
@@ -2288,7 +2288,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>7545.879266279893</v>
+        <v>7546</v>
       </c>
     </row>
     <row r="104">
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>11782.85179726343</v>
+        <v>11783</v>
       </c>
     </row>
     <row r="105">
@@ -2324,7 +2324,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>4192.940257922838</v>
+        <v>4193</v>
       </c>
     </row>
     <row r="106">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>7944.95065199431</v>
+        <v>7945</v>
       </c>
     </row>
     <row r="107">
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>3979.854591820554</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="108">
@@ -2378,7 +2378,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>6865.335699503737</v>
+        <v>6865</v>
       </c>
     </row>
     <row r="109">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>6354.313510304313</v>
+        <v>6354</v>
       </c>
     </row>
     <row r="110">
@@ -2414,7 +2414,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>5292.54408253963</v>
+        <v>5293</v>
       </c>
     </row>
     <row r="111">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>3949.297428106768</v>
+        <v>3949</v>
       </c>
     </row>
     <row r="112">
@@ -2450,7 +2450,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>9009.367206943141</v>
+        <v>9009</v>
       </c>
     </row>
     <row r="113">
@@ -2468,7 +2468,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>5374.54589922217</v>
+        <v>5375</v>
       </c>
     </row>
     <row r="114">
@@ -2486,7 +2486,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>6077.639414858208</v>
+        <v>6078</v>
       </c>
     </row>
     <row r="115">
@@ -2504,7 +2504,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>8824.388291362959</v>
+        <v>8824</v>
       </c>
     </row>
     <row r="116">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>6640.430418518856</v>
+        <v>6640</v>
       </c>
     </row>
     <row r="117">
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>6177.150728303348</v>
+        <v>6177</v>
       </c>
     </row>
     <row r="118">
@@ -2558,7 +2558,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>5702.025886245614</v>
+        <v>5702</v>
       </c>
     </row>
     <row r="119">
@@ -2576,7 +2576,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>8702.810124432957</v>
+        <v>8703</v>
       </c>
     </row>
     <row r="120">
@@ -2594,7 +2594,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>7964.167883482352</v>
+        <v>7964</v>
       </c>
     </row>
     <row r="121">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>9016.943544417132</v>
+        <v>9017</v>
       </c>
     </row>
     <row r="122">
@@ -2630,7 +2630,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>5744.873166284419</v>
+        <v>5745</v>
       </c>
     </row>
     <row r="123">
@@ -2648,7 +2648,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>7731.358550996561</v>
+        <v>7731</v>
       </c>
     </row>
     <row r="124">
@@ -2666,7 +2666,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>6239.603715288378</v>
+        <v>6240</v>
       </c>
     </row>
     <row r="125">
@@ -2684,7 +2684,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>6736.344331744151</v>
+        <v>6736</v>
       </c>
     </row>
     <row r="126">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>7340.101870926339</v>
+        <v>7340</v>
       </c>
     </row>
     <row r="127">
@@ -2720,7 +2720,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>5073.240377651718</v>
+        <v>5073</v>
       </c>
     </row>
     <row r="128">
@@ -2738,7 +2738,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>6631.73296151205</v>
+        <v>6632</v>
       </c>
     </row>
     <row r="129">
@@ -2756,7 +2756,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>2746.512912509101</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="130">
@@ -2774,7 +2774,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>4609.22732820082</v>
+        <v>4609</v>
       </c>
     </row>
     <row r="131">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>6248.331484275721</v>
+        <v>6248</v>
       </c>
     </row>
     <row r="132">
@@ -2810,7 +2810,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>8933.664737527179</v>
+        <v>8934</v>
       </c>
     </row>
     <row r="133">
@@ -2828,7 +2828,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>6301.986942794145</v>
+        <v>6302</v>
       </c>
     </row>
     <row r="134">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>7026.096891953322</v>
+        <v>7026</v>
       </c>
     </row>
     <row r="135">
@@ -2864,7 +2864,7 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>8526.309871285568</v>
+        <v>8526</v>
       </c>
     </row>
     <row r="136">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>9033.539068757946</v>
+        <v>9034</v>
       </c>
     </row>
     <row r="137">
@@ -2900,7 +2900,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>8878.670412625648</v>
+        <v>8879</v>
       </c>
     </row>
     <row r="138">
@@ -2918,7 +2918,7 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>4785.44633634766</v>
+        <v>4785</v>
       </c>
     </row>
     <row r="139">
@@ -2936,7 +2936,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>8453.082324056646</v>
+        <v>8453</v>
       </c>
     </row>
     <row r="140">
@@ -2954,7 +2954,7 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>8323.15722119802</v>
+        <v>8323</v>
       </c>
     </row>
     <row r="141">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>8021.718888145322</v>
+        <v>8022</v>
       </c>
     </row>
     <row r="142">
@@ -2990,7 +2990,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>5317.257658610303</v>
+        <v>5317</v>
       </c>
     </row>
     <row r="143">
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>6066.158837569192</v>
+        <v>6066</v>
       </c>
     </row>
     <row r="144">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>5896.066821424482</v>
+        <v>5896</v>
       </c>
     </row>
     <row r="145">
@@ -3044,7 +3044,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>9031.968274199855</v>
+        <v>9032</v>
       </c>
     </row>
     <row r="146">
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>8354.191257816101</v>
+        <v>8354</v>
       </c>
     </row>
     <row r="147">
@@ -3080,7 +3080,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>7485.724370196516</v>
+        <v>7486</v>
       </c>
     </row>
     <row r="148">
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>8444.077769201129</v>
+        <v>8444</v>
       </c>
     </row>
     <row r="149">
@@ -3116,7 +3116,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>6993.413721216105</v>
+        <v>6993</v>
       </c>
     </row>
     <row r="150">
@@ -3134,7 +3134,7 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>8632.759642179162</v>
+        <v>8633</v>
       </c>
     </row>
     <row r="151">
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>7963.699473262166</v>
+        <v>7964</v>
       </c>
     </row>
     <row r="152">
@@ -3170,7 +3170,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>5556.628557283019</v>
+        <v>5557</v>
       </c>
     </row>
     <row r="153">
@@ -3188,7 +3188,7 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>7167.576160537443</v>
+        <v>7168</v>
       </c>
     </row>
     <row r="154">
@@ -3206,7 +3206,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>9374.746219805624</v>
+        <v>9375</v>
       </c>
     </row>
     <row r="155">
@@ -3224,7 +3224,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>10648.37491742379</v>
+        <v>10648</v>
       </c>
     </row>
     <row r="156">
@@ -3242,7 +3242,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>9354.241564430622</v>
+        <v>9354</v>
       </c>
     </row>
     <row r="157">
@@ -3260,7 +3260,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>8210.51071922202</v>
+        <v>8211</v>
       </c>
     </row>
     <row r="158">
@@ -3278,7 +3278,7 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>5924.956057609625</v>
+        <v>5925</v>
       </c>
     </row>
     <row r="159">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>6084.218241587942</v>
+        <v>6084</v>
       </c>
     </row>
     <row r="160">
@@ -3314,7 +3314,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>6445.184254176568</v>
+        <v>6445</v>
       </c>
     </row>
     <row r="161">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>6853.127289066152</v>
+        <v>6853</v>
       </c>
     </row>
     <row r="162">
@@ -3350,7 +3350,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>7211.065943766236</v>
+        <v>7211</v>
       </c>
     </row>
     <row r="163">
@@ -3368,7 +3368,7 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>2808.803392206627</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="164">
@@ -3386,7 +3386,7 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>3795.345779836276</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="165">
@@ -3404,7 +3404,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>7074.003916024176</v>
+        <v>7074</v>
       </c>
     </row>
     <row r="166">
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>9493.511842766853</v>
+        <v>9494</v>
       </c>
     </row>
     <row r="167">
@@ -3440,7 +3440,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>4410.370504587308</v>
+        <v>4410</v>
       </c>
     </row>
     <row r="168">
@@ -3458,7 +3458,7 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>8847.403252204929</v>
+        <v>8847</v>
       </c>
     </row>
     <row r="169">
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>4988.752671411807</v>
+        <v>4989</v>
       </c>
     </row>
     <row r="170">
@@ -3494,7 +3494,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>5039.423702871795</v>
+        <v>5039</v>
       </c>
     </row>
     <row r="171">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>6342.589512087043</v>
+        <v>6343</v>
       </c>
     </row>
     <row r="172">
@@ -3530,7 +3530,7 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>6384.037195444395</v>
+        <v>6384</v>
       </c>
     </row>
     <row r="173">
@@ -3548,7 +3548,7 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>8351.584780366524</v>
+        <v>8352</v>
       </c>
     </row>
     <row r="174">
@@ -3566,7 +3566,7 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>7195.317905271744</v>
+        <v>7195</v>
       </c>
     </row>
     <row r="175">
@@ -3584,7 +3584,7 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>8912.36494427103</v>
+        <v>8912</v>
       </c>
     </row>
     <row r="176">
@@ -3602,7 +3602,7 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>6034.346730128831</v>
+        <v>6034</v>
       </c>
     </row>
     <row r="177">
@@ -3620,7 +3620,7 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>6163.49285347966</v>
+        <v>6163</v>
       </c>
     </row>
     <row r="178">
@@ -3638,7 +3638,7 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>4251.560676088309</v>
+        <v>4252</v>
       </c>
     </row>
     <row r="179">
@@ -3656,7 +3656,7 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>9775.516026672516</v>
+        <v>9776</v>
       </c>
     </row>
     <row r="180">
@@ -3674,7 +3674,7 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>7532.343720876881</v>
+        <v>7532</v>
       </c>
     </row>
     <row r="181">
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>6482.552757766025</v>
+        <v>6483</v>
       </c>
     </row>
     <row r="182">
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>5221.867388802857</v>
+        <v>5222</v>
       </c>
     </row>
     <row r="183">
@@ -3728,7 +3728,7 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>3272.863369116212</v>
+        <v>3273</v>
       </c>
     </row>
     <row r="184">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>5147.011422168936</v>
+        <v>5147</v>
       </c>
     </row>
     <row r="185">
@@ -3764,7 +3764,7 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>3502.397356291929</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="186">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>4503.809658457603</v>
+        <v>4504</v>
       </c>
     </row>
     <row r="187">
@@ -3800,7 +3800,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>6490.539393001347</v>
+        <v>6491</v>
       </c>
     </row>
     <row r="188">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>5070.343982305159</v>
+        <v>5070</v>
       </c>
     </row>
     <row r="189">
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>7892.299752866693</v>
+        <v>7892</v>
       </c>
     </row>
     <row r="190">
@@ -3854,7 +3854,7 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>5976.8177766033</v>
+        <v>5977</v>
       </c>
     </row>
     <row r="191">
@@ -3872,7 +3872,7 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>5949.693164684026</v>
+        <v>5950</v>
       </c>
     </row>
     <row r="192">
@@ -3890,7 +3890,7 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>4876.718492224831</v>
+        <v>4877</v>
       </c>
     </row>
     <row r="193">
@@ -3908,7 +3908,7 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>5960.288329508459</v>
+        <v>5960</v>
       </c>
     </row>
     <row r="194">
@@ -3926,7 +3926,7 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>4933.789832093178</v>
+        <v>4934</v>
       </c>
     </row>
     <row r="195">
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>5023.801537491207</v>
+        <v>5024</v>
       </c>
     </row>
     <row r="196">
@@ -3962,7 +3962,7 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>5877.648497672742</v>
+        <v>5878</v>
       </c>
     </row>
     <row r="197">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>5577.742654813271</v>
+        <v>5578</v>
       </c>
     </row>
     <row r="198">
@@ -3998,7 +3998,7 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>5391.61191786764</v>
+        <v>5392</v>
       </c>
     </row>
   </sheetData>
